--- a/词汇/数据库导入/007. -vi-=-via-路.xlsx
+++ b/词汇/数据库导入/007. -vi-=-via-路.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,2945 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>via[ˈvaɪə]</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> prep. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>途经；经由；取道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2592</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【词根直接做单词】</t>
+  </si>
+  <si>
+    <t>obviate [ˈɒbvieɪt]</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>避免，消除（贫困、不方便等）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ob-相反，离开+-vi-路+-ate动词后缀】</t>
+  </si>
+  <si>
+    <t>obvious ['ɔbviəs]</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显的，显而易见的，显著的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1696</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ob-反，阻拦+vi路--挡路--明显+ous形容词后缀
+来自obviate,对着路，挡路-ous形容词后缀，即挡着路，引申词义明显的障碍，后词义通用化指明显的】</t>
+  </si>
+  <si>
+    <t>non-obvious[nɒn-'ɔbviəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不明显的，显著的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non否定】</t>
+  </si>
+  <si>
+    <t>obviousness ['ɑbvɪəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显而易见；明显；显著性；【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40662</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【nesss名词后缀】</t>
+  </si>
+  <si>
+    <t>obviously ['ɔbviəsli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显地，显著地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1282</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>previous ['priːvɪəs]</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以前的；从前的；先前的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre-前，先+vi路--之前的路--以前的+ous形容词后缀】</t>
+  </si>
+  <si>
+    <t>previously ['priviəsli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以前；预先；仓促地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>trivia [ˈtrɪviə]</t>
+  </si>
+  <si>
+    <t>trivia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>琐事，不足道的细枝末节；（中世纪大学的）三学科；薄物细故【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13954</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【tri-三+via路--三岔路--市井
+词源：来自拉丁语trivia,三岔路，复数形式trivium,三岔路，来自tri-三，via，路，词
+源同way,引申词义公共地，闲聊，后用于指琐事，小事】</t>
+  </si>
+  <si>
+    <t>trivial ['triviəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平凡的，平常的，不重要的，轻微的，琐细的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【trivia+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>nontrivial ['nɒn'trɪvɪəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非平凡的；【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non否定+trivial】</t>
+  </si>
+  <si>
+    <t>trivially ['trɪvɪəlɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>琐细地；很一般的；无能地；平凡地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53793</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>triviality [,trivi'æləti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>琐事，琐碎，平凡【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ity名词后缀】</t>
+  </si>
+  <si>
+    <t>trivialize [ˈtrɪviəlaɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使显得琐碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不重要、不难等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，轻视【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ize动词后缀】</t>
+  </si>
+  <si>
+    <t>trivialization [ˌtrɪvɪəlaɪ'zeɪʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平凡化；浅薄化；【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36424</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ation名词后缀】</t>
+  </si>
+  <si>
+    <t>deviant [ˈdi:viənt]</t>
+  </si>
+  <si>
+    <t>deviant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不正常的人，异常的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不正常的，异常的；离经叛道的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34506</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【de-向下，离开 vi-路--离开路--偏离正道--不正常+ant名词后缀，表人。词源同way,trivia】</t>
+  </si>
+  <si>
+    <t>deviate['di:vieit]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，偏离【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ate动词后缀】</t>
+  </si>
+  <si>
+    <t>deviation [,di:vi'eiʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背离，偏离，偏向，偏差【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6552</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>deviationist [,di:vi'eiʃənist]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叛离正道者，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政党的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异端分子</t>
+    </r>
+  </si>
+  <si>
+    <t>【ist名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>devious ['di:viəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远离大道的，偏远的，偏僻的，离开正道的【词频】</t>
+    </r>
+  </si>
+  <si>
+    <t>【devi(-ant)+ous形容词后缀】</t>
+  </si>
+  <si>
+    <t>deviously ['di:vɪəslɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弯曲地，绕道地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>deviance ['di:vɪəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏常，异常，异常行为【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25802</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【devi(ant)+ance名词后缀】</t>
+  </si>
+  <si>
+    <t>deviancy [ˈdi:viənsi]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏常；不正常；偏常性；变异性【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41816</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ance==-ancy名词后缀】</t>
+  </si>
+  <si>
+    <t>deviated [ˈdi:vieitid]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏离，越轨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(deviate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51537</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed过去式和过去分词】</t>
+  </si>
+  <si>
+    <t>voyage ['vɒɪɪdʒ]</t>
+  </si>
+  <si>
+    <t>voy</t>
+  </si>
+  <si>
+    <t>voyage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航行；航程；旅行记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航行；航海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞过；渡过【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6714</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32449</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-voy-路--航行+age名词后缀，偶尔表动词
+来自古法语voiage,旅行，航程，词源同via,way,后主要指航海】</t>
+  </si>
+  <si>
+    <t>voyager ['vɒɪɪdʒə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航海者，航行者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25641</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>voyageur [,vwɑ:jɑ:'ʒə:]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加拿大的船夫或樵夫；旅客【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32716</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ur==-er名词后缀，表人
+PS：形容词或名词后缀，表物或人-- -ar==-er==-or==-ur==-ir】</t>
+  </si>
+  <si>
+    <t>convoy ['kɒnvɒɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护送；护卫；护航队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护航；护送【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8602</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54541</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con-强调-voy路--送行--护送，词源同via,way,即护送上路的队伍】</t>
+  </si>
+  <si>
+    <t>envoy ['envɒɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使者；全权公使【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【该词源自法语动词envoyer的过去分词形式envoye ’sent’(被派遣的)，其终极词源乃古法语en voie ‘on the way’(在途中，在进行中)。所以envoy的字面义就是one who has been sent on the way to carry out a mission(被派遣去执行使命的人)，在外交用语中即指“使者”或“使节”】</t>
+  </si>
+  <si>
+    <t>covey ['kʌvɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一队；一群【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29840</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【co-在一起+vey路--在一起上路--一队】</t>
+  </si>
+  <si>
+    <t>convey[kən'veɪ]</t>
+  </si>
+  <si>
+    <t>vey</t>
+  </si>
+  <si>
+    <t>convey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传达；运输；让与【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3785</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con-强调+vey路--输送】</t>
+  </si>
+  <si>
+    <t>conveyor [kən'veɪə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输送机，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送机；传送带；运送者，传播者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14426</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【or名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>conveyer [kən'veɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输送机；运输器【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33770</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>conveyance [kən'veɪəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运输；运输工具；财产让与【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ance名词后缀】</t>
+  </si>
+  <si>
+    <t>way [weɪ]</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法；道路；方向；行业；习惯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大大地；远远地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>途中的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4081</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【来自PIE(原始印欧语)*wegh,移动，词源同wagon,vehecle,via,引申词义路，方法】</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离去，离开；在远处【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>269</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11618</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【a-远离+way路--离开】</t>
+  </si>
+  <si>
+    <t>always [ˈɔ:lweɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永远，一直；总是；常常【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【al-=all全+way+-s偶尔表副词后缀】</t>
+  </si>
+  <si>
+    <t>anyway ['enɪweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无论如何，不管怎样；总之【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1397</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>highway ['haɪweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公路，大路；捷径【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2599</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>hallway ['hɔːlweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走廊；门厅；玄关【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>doorway ['dɔːweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门口；途径【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3896</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>halfway [hɑːf'weɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到一半；在中途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中途的；不彻底的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4631</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10791</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>driveway ['draɪvweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（从建筑物，住房，车库等通往大路的）私人车道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4814</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>subway ['sʌbweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地铁；地道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘地铁【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5443</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>runway ['rʌnweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跑道；河床；滑道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5952</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词run+way】</t>
+  </si>
+  <si>
+    <t>runaway ['rʌnəweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逃亡的；逃走的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逃跑；逃走的人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10185</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词run+away】</t>
+  </si>
+  <si>
+    <t>freeway ['friːweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高速公路【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>pathway ['pɑːθweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路，道；途径，路径【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6653</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>underway ['ʌndə'weɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行中的；起步的；航行中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水底通道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>sideways ['saɪdweɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向侧面地；向一旁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向侧面的；一旁的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>railway ['reɪlweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（英）铁路；轨道；铁道部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘火车旅行【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8524</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>fairway ['feəweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航路；水上飞机升降用的水面跑道；（高尔夫球场上的）平坦球道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9637</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>waterway ['wɔːtəweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航道；水路；排水沟【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9722</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>walkway ['wɔːkweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通道，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走道【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>gateway ['geɪtweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门；网关；方法；通道；途径【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10252</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>stairway ['steəweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶梯，楼梯【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10396</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>getaway ['getəweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逃走；逃跑；短假；适合旅行的地方【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10626</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词get+away】</t>
+  </si>
+  <si>
+    <t>roadway ['rəʊdweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道路；路面；车行道；铁路的路基【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10952</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>one-way ['wʌn'weɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单程的；单行道的；单方面的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>two-way [,tu:'weɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双向的；相互的；两路的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>viatic [vai'ætik]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道路的，旅行的</t>
+    </r>
+  </si>
+  <si>
+    <t>【-vi-路+ate+ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>viameter [vai'æmitə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路程计，车程表</t>
+    </r>
+  </si>
+  <si>
+    <t>【via+meter测量--测量路--路程表】</t>
+  </si>
+  <si>
+    <t>viaduct ['vaiədʌkt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高架桥，跨线桥，旱桥，栈桥【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31630</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【via路+duct引导--引导路--开路--架桥】</t>
   </si>
 </sst>
 </file>
@@ -38,12 +2977,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +2991,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +3077,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +3094,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +3102,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +3131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,9 +3138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +3153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,7 +3174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +3198,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +3276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +3300,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +3336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +3348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +3383,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -431,16 +3408,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,31 +3458,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +3485,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +4015,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +4042,1064 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
